--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3239681.58595203</v>
+        <v>3237136.399878743</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>48.28463004918702</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>23.40477905205531</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.4121462068567</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.437456820198217</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>326.1230146347445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>142.5318748130975</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.46527312190288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.93222849083779</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426839</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711285</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.717708340416</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.755191400004</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>899.4894927932537</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>513.7012401950094</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>102.7153354054018</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2013.317548404538</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551153</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551153</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="X4" t="n">
-        <v>184.2708856551153</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1386.090004781549</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>1386.090004781549</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>1027.824306174799</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>642.0360535765544</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>231.0501487869469</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.090004781549</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="6">
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>385.2134747710234</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2024.91527597564</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2195.084301292599</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2624.399347631893</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2694.687013422063</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2479.887151689774</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2226.195448434925</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1895.132561091354</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1542.36390582124</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.73190451848</v>
+        <v>1168.89814756016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.592572542669</v>
+        <v>778.7588155843487</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1385.11694267384</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>836.4056902455271</v>
+        <v>197.914572540665</v>
       </c>
       <c r="C10" t="n">
-        <v>667.4695073176202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.3528679052845</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.4397743228914</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>634.2475255767915</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="Y10" t="n">
-        <v>1018.054155075767</v>
+        <v>379.5630373709047</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,22 +5176,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,19 +5650,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803938</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5996,40 +5996,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,7 +6698,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7163,7 +7163,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7731,10 +7731,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,16 +8462,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>38.14709430781211</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>240.7280987119432</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194225</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538607</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194223</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911101</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312479</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312475</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="G2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808065</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682695</v>
+        <v>5677.536566682768</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682766</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682768</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682757</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682754</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682809</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682767</v>
       </c>
       <c r="O4" t="n">
+        <v>5677.536566682721</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-164337.8241097392</v>
+        <v>-164337.8241097395</v>
       </c>
       <c r="C6" t="n">
-        <v>425630.0551048054</v>
+        <v>425630.0551048052</v>
       </c>
       <c r="D6" t="n">
-        <v>269826.2490110096</v>
+        <v>269826.2490110098</v>
       </c>
       <c r="E6" t="n">
-        <v>-171599.4830426411</v>
+        <v>-171634.220968077</v>
       </c>
       <c r="F6" t="n">
-        <v>599453.2083381657</v>
+        <v>599418.4704127298</v>
       </c>
       <c r="G6" t="n">
-        <v>599453.2083381657</v>
+        <v>599418.4704127301</v>
       </c>
       <c r="H6" t="n">
-        <v>599453.2083381655</v>
+        <v>599418.4704127299</v>
       </c>
       <c r="I6" t="n">
-        <v>599453.2083381659</v>
+        <v>599418.4704127301</v>
       </c>
       <c r="J6" t="n">
-        <v>423029.9891455727</v>
+        <v>422995.2512201366</v>
       </c>
       <c r="K6" t="n">
-        <v>599453.2083381657</v>
+        <v>599418.4704127299</v>
       </c>
       <c r="L6" t="n">
-        <v>599453.2083381652</v>
+        <v>599418.4704127298</v>
       </c>
       <c r="M6" t="n">
-        <v>475244.6976301071</v>
+        <v>475209.9597046714</v>
       </c>
       <c r="N6" t="n">
-        <v>599453.2083381655</v>
+        <v>599418.4704127298</v>
       </c>
       <c r="O6" t="n">
-        <v>599453.2083381654</v>
+        <v>599418.4704127297</v>
       </c>
       <c r="P6" t="n">
-        <v>599453.2083381657</v>
+        <v>599418.47041273</v>
       </c>
     </row>
   </sheetData>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.74216000639382</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>365.499539971608</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>27.35284188332972</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.56002855569147</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>390.3793909687397</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.3189544716123</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>152.215430307942</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>43.60808604372448</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>24.71494628553032</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,10 +28065,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.1193802301919</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32093,13 +32093,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35182,16 +35182,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>73.4845892791203</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,16 +35261,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>441.3914741186752</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35741,13 +35741,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
